--- a/diary/2017-4-13(L).xlsx
+++ b/diary/2017-4-13(L).xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>14.5</v>
       </c>
       <c r="E4" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
       </c>
       <c r="E15" s="1">
         <f>SUM(E2:E14)</f>
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
